--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\个人资料\物流通助手\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea-plugn\logistics-assistant\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896712DA-96C7-42E5-9F57-363D46841269}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86888A97-81CE-4797-8184-18E5E6FBADDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F73F13E-21B2-4DFA-B9ED-0378785AF202}"/>
+    <workbookView xWindow="29280" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{6F73F13E-21B2-4DFA-B9ED-0378785AF202}"/>
   </bookViews>
   <sheets>
     <sheet name="物流通助手" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="115">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c_longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c_latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c_address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,14 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s_address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,70 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收货电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl_rec_user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl_rec_user_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl_rec_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl_rec_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提货联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提货电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提货营业时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货营业时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提货地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl_pick_user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl_pick_user_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl_pick_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl_pick_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网点Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,69 +303,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>region_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>region_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>region_short_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地区Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地区名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区缩写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>region_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区父级Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>region_level</t>
-  </si>
-  <si>
-    <t>region_parent_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地区表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政地区编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10) PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(255)</t>
   </si>
   <si>
@@ -453,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c_region</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,6 +366,122 @@
   </si>
   <si>
     <t>网点详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA_Departure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_site_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_site_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始网点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途径网点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_site_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束网点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_departure_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发车时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,10 +564,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -907,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44FFDB4-E461-4803-A74C-B158135F4F88}">
-  <dimension ref="A6:C90"/>
+  <dimension ref="A6:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,17 +912,17 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -954,13 +937,13 @@
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -968,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -976,101 +959,101 @@
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1079,17 +1062,17 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6"/>
+      <c r="B22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1104,112 +1087,112 @@
     </row>
     <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1218,17 +1201,17 @@
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="6"/>
+      <c r="B38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1243,57 +1226,57 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1302,17 +1285,17 @@
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="6"/>
+      <c r="B50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1327,151 +1310,151 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="6"/>
+      <c r="B67" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -1486,202 +1469,253 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>50</v>
+      <c r="A71" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>49</v>
+      <c r="A72" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>57</v>
+      <c r="A73" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>60</v>
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="10"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" s="6"/>
+      <c r="A82" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="7"/>
+      <c r="A83" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>1</v>
+      <c r="A84" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>92</v>
+      <c r="A85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="B96" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
+  <mergeCells count="14">
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B22:C22"/>
